--- a/Server/Document/daily-api.xlsx
+++ b/Server/Document/daily-api.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김동현\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10044"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -231,14 +226,34 @@
   </si>
   <si>
     <t>text: note의 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 도장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 day</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +351,36 @@
     <cellStyle name="요약" xfId="1" builtinId="25"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -392,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -427,7 +470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -604,32 +647,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.796875" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,7 +696,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -677,12 +720,12 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -705,12 +748,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -733,12 +776,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="G9" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -761,7 +804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,12 +827,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="F14" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,12 +855,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="F17" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -838,6 +881,28 @@
       </c>
       <c r="G19" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
